--- a/Resultados_Cuestionarios.xlsx
+++ b/Resultados_Cuestionarios.xlsx
@@ -20,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -35,8 +35,12 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill/>
     </fill>
@@ -57,8 +61,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="0048FF68"/>
+        <bgColor rgb="0048FF68"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00CCFFCC"/>
         <bgColor rgb="00CCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF9900"/>
+        <bgColor rgb="00FF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF27AE60"/>
+        <bgColor rgb="FF27AE60"/>
       </patternFill>
     </fill>
   </fills>
@@ -74,14 +108,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -476,7 +522,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Dimensión/Dominio</t>
+          <t>Dominio/Dimensión</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -507,43 +553,43 @@
       <c r="C3" s="2" t="n">
         <v>14.6</v>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>Riesgo bajo</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">  Dimensión: Relaciones sociales en el trabajo</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4" t="n">
         <v>33.9</v>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>Riesgo alto</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">  Dimensión: Retroalimentacion del desempeño</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t>Riesgo bajo</t>
         </is>
@@ -561,79 +607,79 @@
       <c r="C6" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D6" s="7" t="inlineStr">
         <is>
           <t>Riesgo alto</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">  Dimensión: Claridad de rol</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4" t="n">
         <v>46.4</v>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D7" s="8" t="inlineStr">
         <is>
           <t>Riesgo muy alto</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">  Dimensión: Capacitacion</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4" t="n">
         <v>16.7</v>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
         <is>
           <t>Riesgo bajo</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">  Dimensión: Participacion y manejo del cambio</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4" t="n">
         <v>31.2</v>
       </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="D9" s="9" t="inlineStr">
         <is>
           <t>Riesgo medio</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">  Dimensión: Control y autonomia sobre el trabajo</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="D10" s="3" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>Riesgo alto</t>
         </is>
@@ -651,97 +697,97 @@
       <c r="C11" s="2" t="n">
         <v>35.5</v>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D11" s="10" t="inlineStr">
         <is>
           <t>Riesgo medio</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">  Dimensión: Demandas ambientales y de esfuerzo fisico</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="4" t="n">
         <v>43.8</v>
       </c>
-      <c r="D12" s="3" t="inlineStr">
+      <c r="D12" s="8" t="inlineStr">
         <is>
           <t>Riesgo muy alto</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">  Dimensión: Demandas emocionales</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="4" t="n">
         <v>66.7</v>
       </c>
-      <c r="D13" s="3" t="inlineStr">
+      <c r="D13" s="8" t="inlineStr">
         <is>
           <t>Riesgo muy alto</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">  Dimensión: Influencia del trabajo sobre el entorno extralaboral</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="D14" s="5" t="inlineStr">
         <is>
           <t>Riesgo alto</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">  Dimensión: Consistencia de rol</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="C15" s="4" t="n">
         <v>65</v>
       </c>
-      <c r="D15" s="3" t="inlineStr">
+      <c r="D15" s="8" t="inlineStr">
         <is>
           <t>Riesgo muy alto</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">  Dimensión: Demandas de la jornada de trabajo</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="C16" s="3" t="n">
+      <c r="C16" s="4" t="n">
         <v>41.7</v>
       </c>
-      <c r="D16" s="3" t="inlineStr">
+      <c r="D16" s="5" t="inlineStr">
         <is>
           <t>Riesgo alto</t>
         </is>
@@ -759,61 +805,61 @@
       <c r="C17" s="2" t="n">
         <v>36.4</v>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D17" s="11" t="inlineStr">
         <is>
           <t>Riesgo muy alto</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+      <c r="A18" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">  Dimensión: Recompensas derivadas de la pertenencia a la organizacion y del trabajo que se realiza</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="C18" s="3" t="n">
+      <c r="C18" s="4" t="n">
         <v>35</v>
       </c>
-      <c r="D18" s="3" t="inlineStr">
+      <c r="D18" s="8" t="inlineStr">
         <is>
           <t>Riesgo muy alto</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="inlineStr">
+      <c r="A19" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">  Dimensión: Reconocimiento y compensacion</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="C19" s="3" t="n">
+      <c r="C19" s="4" t="n">
         <v>37.5</v>
       </c>
-      <c r="D19" s="3" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>Riesgo alto</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="A20" s="12" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="12" t="n">
         <v>137</v>
       </c>
-      <c r="C20" s="4" t="n">
+      <c r="C20" s="12" t="n">
         <v>27.8</v>
       </c>
-      <c r="D20" s="4" t="inlineStr">
+      <c r="D20" s="13" t="inlineStr">
         <is>
           <t>Riesgo medio</t>
         </is>
@@ -859,7 +905,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Dimensión/Dominio</t>
+          <t>Dominio/Dimensión</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -890,61 +936,61 @@
       <c r="C3" s="2" t="n">
         <v>67.5</v>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="11" t="inlineStr">
         <is>
           <t>Riesgo muy alto</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">  Dimensión: Caracteristicas del liderazgo</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>33</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4" t="n">
         <v>63.5</v>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="8" t="inlineStr">
         <is>
           <t>Riesgo muy alto</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">  Dimensión: Relaciones sociales en el trabajo</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>33</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4" t="n">
         <v>68.8</v>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="8" t="inlineStr">
         <is>
           <t>Riesgo muy alto</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">  Dimensión: Retroalimentacion del desempeño</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4" t="n">
         <v>75</v>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D6" s="8" t="inlineStr">
         <is>
           <t>Riesgo muy alto</t>
         </is>
@@ -962,79 +1008,79 @@
       <c r="C7" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="D7" s="11" t="inlineStr">
         <is>
           <t>Riesgo muy alto</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">  Dimensión: Claridad de rol</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4" t="n">
         <v>65</v>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D8" s="8" t="inlineStr">
         <is>
           <t>Riesgo muy alto</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">  Dimensión: Capacitacion</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4" t="n">
         <v>66.7</v>
       </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="D9" s="8" t="inlineStr">
         <is>
           <t>Riesgo muy alto</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">  Dimensión: Participacion y manejo del cambio</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4" t="n">
         <v>58.3</v>
       </c>
-      <c r="D10" s="3" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>Riesgo alto</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">  Dimensión: Oportunidades para el uso y desarrollo de habilidades y conocimientos</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>Riesgo alto</t>
         </is>
@@ -1052,25 +1098,25 @@
       <c r="C12" s="2" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="D12" s="14" t="inlineStr">
         <is>
           <t>Sin riesgo o riesgo despreciable</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">  Dimensión: Demandas de carga mental</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="4" t="n">
         <v>65</v>
       </c>
-      <c r="D13" s="3" t="inlineStr">
+      <c r="D13" s="6" t="inlineStr">
         <is>
           <t>Riesgo bajo</t>
         </is>
@@ -1088,43 +1134,43 @@
       <c r="C14" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="D14" s="7" t="inlineStr">
         <is>
           <t>Riesgo alto</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">  Dimensión: Recompensas derivadas de la pertenencia a la organizacion y del trabajo que se realiza</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="C15" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="D15" s="3" t="inlineStr">
+      <c r="D15" s="8" t="inlineStr">
         <is>
           <t>Riesgo muy alto</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="A16" s="12" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="12" t="n">
         <v>138</v>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="12" t="n">
         <v>35.6</v>
       </c>
-      <c r="D16" s="4" t="inlineStr">
+      <c r="D16" s="15" t="inlineStr">
         <is>
           <t>Riesgo muy alto</t>
         </is>
@@ -1170,7 +1216,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Dimensión/Dominio</t>
+          <t>Dominio/Dimensión</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -1190,126 +1236,126 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>Tiempo fuera del trabajo</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>Riesgo alto</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>Relaciones familiares</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4" t="n">
         <v>41.7</v>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>Riesgo alto</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>Comunicación y relaciones interpersonales</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4" t="n">
         <v>35</v>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="8" t="inlineStr">
         <is>
           <t>Riesgo muy alto</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>Situación económica del grupo familiar</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4" t="n">
         <v>66.7</v>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D6" s="8" t="inlineStr">
         <is>
           <t>Riesgo muy alto</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>Influencia del entorno extralaboral sobre el trabajo</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4" t="n">
         <v>75</v>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D7" s="8" t="inlineStr">
         <is>
           <t>Riesgo muy alto</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>Desplazamiento vivienda trabajo vivienda</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4" t="n">
         <v>68.8</v>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D8" s="8" t="inlineStr">
         <is>
           <t>Riesgo muy alto</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="12" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="12" t="n">
         <v>48</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="12" t="n">
         <v>38.7</v>
       </c>
-      <c r="D9" s="4" t="inlineStr">
+      <c r="D9" s="15" t="inlineStr">
         <is>
           <t>Riesgo muy alto</t>
         </is>
@@ -1341,22 +1387,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Cuestionarios evaluados</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Bruto</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Transformado</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Clasificación</t>
         </is>
@@ -1374,7 +1420,7 @@
       <c r="C2" t="n">
         <v>10.8</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="16" t="inlineStr">
         <is>
           <t>Sin riesgo o riesgo despreciable</t>
         </is>
@@ -1392,7 +1438,7 @@
       <c r="C3" t="n">
         <v>14.5</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="16" t="inlineStr">
         <is>
           <t>Sin riesgo o riesgo despreciable</t>
         </is>
@@ -1410,7 +1456,7 @@
       <c r="C4" t="n">
         <v>52</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="8" t="inlineStr">
         <is>
           <t>Muy alto</t>
         </is>
